--- a/results.xlsx
+++ b/results.xlsx
@@ -34,21 +34,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="38">
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32768</t>
+  </si>
+  <si>
+    <t>464.0</t>
+  </si>
+  <si>
+    <t>32800</t>
+  </si>
+  <si>
+    <t>4.433</t>
+  </si>
+  <si>
+    <t>0.275390625</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>OX</t>
+  </si>
+  <si>
+    <t>SwapBest</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>SwapBestII</t>
+  </si>
+  <si>
+    <t>476.0</t>
+  </si>
+  <si>
+    <t>5.425</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>SwapFirstII</t>
+  </si>
+  <si>
+    <t>460.0</t>
+  </si>
+  <si>
+    <t>5.832</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>SwapRandom</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6.581</t>
+  </si>
   <si>
     <t>PMX</t>
   </si>
   <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>Local Search</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>444.0</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>458.0</t>
+  </si>
+  <si>
+    <t>4.849</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>462.0</t>
+  </si>
+  <si>
+    <t>5.182</t>
+  </si>
+  <si>
+    <t>470.0</t>
+  </si>
+  <si>
+    <t>6.479</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>456.0</t>
+  </si>
+  <si>
+    <t>1.787</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>1.41</t>
   </si>
 </sst>
 </file>
@@ -420,33 +519,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str" s="0">
-        <v>Algorithm</v>
+        <v># Birds</v>
       </c>
       <c r="B1" t="str" s="0">
-        <v>Cost</v>
+        <v># Neighbours</v>
+      </c>
+      <c r="C1" t="str" s="0">
+        <v>Overlap Factor</v>
+      </c>
+      <c r="D1" t="str" s="0">
+        <v># Iterations</v>
+      </c>
+      <c r="E1" t="str" s="0">
+        <v>Final Cost</v>
+      </c>
+      <c r="F1" t="str" s="0">
+        <v># Neighbours Created</v>
+      </c>
+      <c r="G1" t="str" s="0">
+        <v>Time</v>
+      </c>
+      <c r="H1" t="str" s="0">
+        <v>Density</v>
+      </c>
+      <c r="I1" t="str" s="0">
+        <v># Types</v>
+      </c>
+      <c r="J1" t="str" s="0">
+        <v>Crossover</v>
+      </c>
+      <c r="K1" t="str" s="0">
+        <v>Mutation</v>
+      </c>
+      <c r="L1" t="str" s="0">
+        <v>Mutation Intensity</v>
+      </c>
+      <c r="M1" t="str" s="0">
+        <v>Local Search</v>
+      </c>
+      <c r="N1" t="str" s="0">
+        <v>Depth of Local Search</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>1</v>
+      <c r="A2" t="str" s="0">
+        <v>51</v>
+      </c>
+      <c r="B2" t="str" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="str" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str" s="0">
+        <v>32768</v>
+      </c>
+      <c r="E2" t="str" s="0">
+        <v>454.0</v>
+      </c>
+      <c r="F2" t="str" s="0">
+        <v>32800</v>
+      </c>
+      <c r="G2" t="str" s="0">
+        <v>6.496</v>
+      </c>
+      <c r="H2" t="str" s="0">
+        <v>0.275390625</v>
+      </c>
+      <c r="I2" t="str" s="0">
+        <v>32</v>
+      </c>
+      <c r="J2" t="str" s="0">
+        <v>PMX</v>
+      </c>
+      <c r="K2" t="str" s="0">
+        <v>SwapBest</v>
+      </c>
+      <c r="L2" t="str" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="M2" t="str" s="0">
+        <v>SwapFirstII</v>
+      </c>
+      <c r="N2" t="str" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>3</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -454,20 +661,400 @@
         <v>0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>3</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="N6" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="N12" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emir/MMBO-Algorithm-QAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1F5CFB-894F-E240-94D0-45AEDCAA630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D21F91D-FD2E-194B-9F79-19A7C6170255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t># Birds</t>
   </si>
@@ -73,6 +73,9 @@
     <t>U_CX_COUNTER</t>
   </si>
   <si>
+    <t>U_NONE_COUNTER</t>
+  </si>
+  <si>
     <t>U_SWAPRANDOM_COUNTER</t>
   </si>
   <si>
@@ -118,74 +121,70 @@
     <t>U_DLS_5_COUNTER</t>
   </si>
   <si>
-    <t>A_PMX_COANTER</t>
-  </si>
-  <si>
-    <t>A_OX_COANTER</t>
-  </si>
-  <si>
-    <t>A_CX_COANTER</t>
-  </si>
-  <si>
-    <t>A_SWAPRANDOM_COANTER</t>
-  </si>
-  <si>
-    <t>A_SWAPBEST_COANTER</t>
-  </si>
-  <si>
-    <t>A_SCRAMBLE_COANTER</t>
-  </si>
-  <si>
-    <t>A_SFII_COANTER</t>
-  </si>
-  <si>
-    <t>A_SBII_COANTER</t>
-  </si>
-  <si>
-    <t>A_MI_0.2_COANTER</t>
-  </si>
-  <si>
-    <t>A_MI_0.4_COANTER</t>
-  </si>
-  <si>
-    <t>A_MI_0.6_COANTER</t>
-  </si>
-  <si>
-    <t>A_MI_0.8_COANTER</t>
-  </si>
-  <si>
-    <t>A_MI_1_COANTER</t>
-  </si>
-  <si>
-    <t>A_DLS_1_COANTER</t>
-  </si>
-  <si>
-    <t>A_DLS_2_COANTER</t>
-  </si>
-  <si>
-    <t>A_DLS_3_COANTER</t>
-  </si>
-  <si>
-    <t>A_DLS_4_COANTER</t>
-  </si>
-  <si>
-    <t>A_DLS_5_COANTER</t>
+    <t>A_NONE_COUNTER</t>
+  </si>
+  <si>
+    <t>A_PMX_COUNTER</t>
+  </si>
+  <si>
+    <t>A_OX_COUNTER</t>
+  </si>
+  <si>
+    <t>A_CX_COUNTER</t>
+  </si>
+  <si>
+    <t>A_SWAPRANDOM_COUNTER</t>
+  </si>
+  <si>
+    <t>A_SWAPBEST_COUNTER</t>
+  </si>
+  <si>
+    <t>A_SCRAMBLE_COUNTER</t>
+  </si>
+  <si>
+    <t>A_SFII_COUNTER</t>
+  </si>
+  <si>
+    <t>A_SBII_COUNTER</t>
+  </si>
+  <si>
+    <t>A_MI_0.2_COUNTER</t>
+  </si>
+  <si>
+    <t>A_MI_0.4_COUNTER</t>
+  </si>
+  <si>
+    <t>A_MI_0.6_COUNTER</t>
+  </si>
+  <si>
+    <t>A_MI_0.8_COUNTER</t>
+  </si>
+  <si>
+    <t>A_MI_1_COUNTER</t>
+  </si>
+  <si>
+    <t>A_DLS_1_COUNTER</t>
+  </si>
+  <si>
+    <t>A_DLS_2_COUNTER</t>
+  </si>
+  <si>
+    <t>A_DLS_3_COUNTER</t>
+  </si>
+  <si>
+    <t>A_DLS_4_COUNTER</t>
+  </si>
+  <si>
+    <t>A_DLS_5_COUNTER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -212,9 +211,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,167 +552,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX1"/>
+  <dimension ref="A1:AZ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="A2:N12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.33203125" customWidth="1"/>
+    <col min="38" max="38" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:AG1" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
@@ -28,6 +31,1940 @@
     </bk>
   </cellMetadata>
 </metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="643">
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>125000</t>
+  </si>
+  <si>
+    <t>49528.0</t>
+  </si>
+  <si>
+    <t>125860</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>ScrambleSwap</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>SwapBestII</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>29211</t>
+  </si>
+  <si>
+    <t>29991</t>
+  </si>
+  <si>
+    <t>19857</t>
+  </si>
+  <si>
+    <t>46801</t>
+  </si>
+  <si>
+    <t>22499</t>
+  </si>
+  <si>
+    <t>14604</t>
+  </si>
+  <si>
+    <t>88757</t>
+  </si>
+  <si>
+    <t>32234</t>
+  </si>
+  <si>
+    <t>93626</t>
+  </si>
+  <si>
+    <t>93142</t>
+  </si>
+  <si>
+    <t>8477</t>
+  </si>
+  <si>
+    <t>7981</t>
+  </si>
+  <si>
+    <t>8488</t>
+  </si>
+  <si>
+    <t>7772</t>
+  </si>
+  <si>
+    <t>10638</t>
+  </si>
+  <si>
+    <t>12655</t>
+  </si>
+  <si>
+    <t>29817</t>
+  </si>
+  <si>
+    <t>47133</t>
+  </si>
+  <si>
+    <t>25617</t>
+  </si>
+  <si>
+    <t>2717</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>1260</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>1498</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>49606.0</t>
+  </si>
+  <si>
+    <t>2.078</t>
+  </si>
+  <si>
+    <t>PMX</t>
+  </si>
+  <si>
+    <t>SwapFirstII</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>88437</t>
+  </si>
+  <si>
+    <t>12519</t>
+  </si>
+  <si>
+    <t>13399</t>
+  </si>
+  <si>
+    <t>11505</t>
+  </si>
+  <si>
+    <t>24182</t>
+  </si>
+  <si>
+    <t>13957</t>
+  </si>
+  <si>
+    <t>87721</t>
+  </si>
+  <si>
+    <t>89836</t>
+  </si>
+  <si>
+    <t>36024</t>
+  </si>
+  <si>
+    <t>94043</t>
+  </si>
+  <si>
+    <t>7927</t>
+  </si>
+  <si>
+    <t>8356</t>
+  </si>
+  <si>
+    <t>7987</t>
+  </si>
+  <si>
+    <t>7547</t>
+  </si>
+  <si>
+    <t>11281</t>
+  </si>
+  <si>
+    <t>17456</t>
+  </si>
+  <si>
+    <t>12820</t>
+  </si>
+  <si>
+    <t>12413</t>
+  </si>
+  <si>
+    <t>71890</t>
+  </si>
+  <si>
+    <t>4822</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>1329</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>1091</t>
+  </si>
+  <si>
+    <t>1154</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>49838.0</t>
+  </si>
+  <si>
+    <t>1.951</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>SwapBest</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>13172</t>
+  </si>
+  <si>
+    <t>48280</t>
+  </si>
+  <si>
+    <t>48181</t>
+  </si>
+  <si>
+    <t>16227</t>
+  </si>
+  <si>
+    <t>22775</t>
+  </si>
+  <si>
+    <t>15501</t>
+  </si>
+  <si>
+    <t>87584</t>
+  </si>
+  <si>
+    <t>62700</t>
+  </si>
+  <si>
+    <t>63160</t>
+  </si>
+  <si>
+    <t>90753</t>
+  </si>
+  <si>
+    <t>9196</t>
+  </si>
+  <si>
+    <t>7451</t>
+  </si>
+  <si>
+    <t>10533</t>
+  </si>
+  <si>
+    <t>10566</t>
+  </si>
+  <si>
+    <t>12864</t>
+  </si>
+  <si>
+    <t>20985</t>
+  </si>
+  <si>
+    <t>47383</t>
+  </si>
+  <si>
+    <t>34062</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>1322</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>933</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>1501</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>49384.0</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>42743</t>
+  </si>
+  <si>
+    <t>22885</t>
+  </si>
+  <si>
+    <t>13728</t>
+  </si>
+  <si>
+    <t>46504</t>
+  </si>
+  <si>
+    <t>34287</t>
+  </si>
+  <si>
+    <t>13936</t>
+  </si>
+  <si>
+    <t>77637</t>
+  </si>
+  <si>
+    <t>87209</t>
+  </si>
+  <si>
+    <t>38651</t>
+  </si>
+  <si>
+    <t>91802</t>
+  </si>
+  <si>
+    <t>10014</t>
+  </si>
+  <si>
+    <t>8038</t>
+  </si>
+  <si>
+    <t>7878</t>
+  </si>
+  <si>
+    <t>8128</t>
+  </si>
+  <si>
+    <t>24771</t>
+  </si>
+  <si>
+    <t>13308</t>
+  </si>
+  <si>
+    <t>32969</t>
+  </si>
+  <si>
+    <t>19062</t>
+  </si>
+  <si>
+    <t>35750</t>
+  </si>
+  <si>
+    <t>3201</t>
+  </si>
+  <si>
+    <t>672</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <t>2064</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>49692.0</t>
+  </si>
+  <si>
+    <t>1.447</t>
+  </si>
+  <si>
+    <t>44403</t>
+  </si>
+  <si>
+    <t>22742</t>
+  </si>
+  <si>
+    <t>37797</t>
+  </si>
+  <si>
+    <t>20918</t>
+  </si>
+  <si>
+    <t>28100</t>
+  </si>
+  <si>
+    <t>14110</t>
+  </si>
+  <si>
+    <t>83650</t>
+  </si>
+  <si>
+    <t>86337</t>
+  </si>
+  <si>
+    <t>39523</t>
+  </si>
+  <si>
+    <t>92191</t>
+  </si>
+  <si>
+    <t>8844</t>
+  </si>
+  <si>
+    <t>8081</t>
+  </si>
+  <si>
+    <t>8157</t>
+  </si>
+  <si>
+    <t>8587</t>
+  </si>
+  <si>
+    <t>46892</t>
+  </si>
+  <si>
+    <t>40238</t>
+  </si>
+  <si>
+    <t>15818</t>
+  </si>
+  <si>
+    <t>10556</t>
+  </si>
+  <si>
+    <t>12356</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>689</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>841</t>
+  </si>
+  <si>
+    <t>1425</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>49466.0</t>
+  </si>
+  <si>
+    <t>1.666</t>
+  </si>
+  <si>
+    <t>59836</t>
+  </si>
+  <si>
+    <t>19348</t>
+  </si>
+  <si>
+    <t>22780</t>
+  </si>
+  <si>
+    <t>23896</t>
+  </si>
+  <si>
+    <t>41300</t>
+  </si>
+  <si>
+    <t>15111</t>
+  </si>
+  <si>
+    <t>69449</t>
+  </si>
+  <si>
+    <t>61150</t>
+  </si>
+  <si>
+    <t>64710</t>
+  </si>
+  <si>
+    <t>93777</t>
+  </si>
+  <si>
+    <t>8143</t>
+  </si>
+  <si>
+    <t>8971</t>
+  </si>
+  <si>
+    <t>8077</t>
+  </si>
+  <si>
+    <t>6892</t>
+  </si>
+  <si>
+    <t>31042</t>
+  </si>
+  <si>
+    <t>27830</t>
+  </si>
+  <si>
+    <t>9384</t>
+  </si>
+  <si>
+    <t>34570</t>
+  </si>
+  <si>
+    <t>23034</t>
+  </si>
+  <si>
+    <t>4848</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>1349</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>1336</t>
+  </si>
+  <si>
+    <t>1579</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>49100.0</t>
+  </si>
+  <si>
+    <t>1.923</t>
+  </si>
+  <si>
+    <t>52734</t>
+  </si>
+  <si>
+    <t>26856</t>
+  </si>
+  <si>
+    <t>30791</t>
+  </si>
+  <si>
+    <t>15479</t>
+  </si>
+  <si>
+    <t>24688</t>
+  </si>
+  <si>
+    <t>14119</t>
+  </si>
+  <si>
+    <t>87053</t>
+  </si>
+  <si>
+    <t>54523</t>
+  </si>
+  <si>
+    <t>71337</t>
+  </si>
+  <si>
+    <t>93606</t>
+  </si>
+  <si>
+    <t>8530</t>
+  </si>
+  <si>
+    <t>8909</t>
+  </si>
+  <si>
+    <t>7263</t>
+  </si>
+  <si>
+    <t>7552</t>
+  </si>
+  <si>
+    <t>17276</t>
+  </si>
+  <si>
+    <t>14916</t>
+  </si>
+  <si>
+    <t>11752</t>
+  </si>
+  <si>
+    <t>37313</t>
+  </si>
+  <si>
+    <t>44603</t>
+  </si>
+  <si>
+    <t>2336</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>1644</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
+    <t>49858.0</t>
+  </si>
+  <si>
+    <t>1.843</t>
+  </si>
+  <si>
+    <t>37544</t>
+  </si>
+  <si>
+    <t>34309</t>
+  </si>
+  <si>
+    <t>41990</t>
+  </si>
+  <si>
+    <t>12017</t>
+  </si>
+  <si>
+    <t>29727</t>
+  </si>
+  <si>
+    <t>18418</t>
+  </si>
+  <si>
+    <t>77715</t>
+  </si>
+  <si>
+    <t>42229</t>
+  </si>
+  <si>
+    <t>83631</t>
+  </si>
+  <si>
+    <t>93380</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>7567</t>
+  </si>
+  <si>
+    <t>7526</t>
+  </si>
+  <si>
+    <t>8387</t>
+  </si>
+  <si>
+    <t>8721</t>
+  </si>
+  <si>
+    <t>10717</t>
+  </si>
+  <si>
+    <t>47288</t>
+  </si>
+  <si>
+    <t>37051</t>
+  </si>
+  <si>
+    <t>22083</t>
+  </si>
+  <si>
+    <t>3649</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>1496</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>1433</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>49230.0</t>
+  </si>
+  <si>
+    <t>1.434</t>
+  </si>
+  <si>
+    <t>81541</t>
+  </si>
+  <si>
+    <t>24431</t>
+  </si>
+  <si>
+    <t>10329</t>
+  </si>
+  <si>
+    <t>9559</t>
+  </si>
+  <si>
+    <t>28019</t>
+  </si>
+  <si>
+    <t>11893</t>
+  </si>
+  <si>
+    <t>85948</t>
+  </si>
+  <si>
+    <t>46769</t>
+  </si>
+  <si>
+    <t>79091</t>
+  </si>
+  <si>
+    <t>96252</t>
+  </si>
+  <si>
+    <t>8605</t>
+  </si>
+  <si>
+    <t>7568</t>
+  </si>
+  <si>
+    <t>6456</t>
+  </si>
+  <si>
+    <t>6979</t>
+  </si>
+  <si>
+    <t>64767</t>
+  </si>
+  <si>
+    <t>21758</t>
+  </si>
+  <si>
+    <t>9114</t>
+  </si>
+  <si>
+    <t>6928</t>
+  </si>
+  <si>
+    <t>23293</t>
+  </si>
+  <si>
+    <t>4977</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>1537</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>1845</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1682</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>49244.0</t>
+  </si>
+  <si>
+    <t>1.831</t>
+  </si>
+  <si>
+    <t>SwapRandom</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>56871</t>
+  </si>
+  <si>
+    <t>18455</t>
+  </si>
+  <si>
+    <t>34903</t>
+  </si>
+  <si>
+    <t>15631</t>
+  </si>
+  <si>
+    <t>53149</t>
+  </si>
+  <si>
+    <t>18137</t>
+  </si>
+  <si>
+    <t>54574</t>
+  </si>
+  <si>
+    <t>64076</t>
+  </si>
+  <si>
+    <t>61784</t>
+  </si>
+  <si>
+    <t>88086</t>
+  </si>
+  <si>
+    <t>9925</t>
+  </si>
+  <si>
+    <t>11068</t>
+  </si>
+  <si>
+    <t>9374</t>
+  </si>
+  <si>
+    <t>7407</t>
+  </si>
+  <si>
+    <t>13500</t>
+  </si>
+  <si>
+    <t>18132</t>
+  </si>
+  <si>
+    <t>22236</t>
+  </si>
+  <si>
+    <t>58266</t>
+  </si>
+  <si>
+    <t>13726</t>
+  </si>
+  <si>
+    <t>6395</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>668</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>49338.0</t>
+  </si>
+  <si>
+    <t>2.091</t>
+  </si>
+  <si>
+    <t>86112</t>
+  </si>
+  <si>
+    <t>10646</t>
+  </si>
+  <si>
+    <t>16380</t>
+  </si>
+  <si>
+    <t>12722</t>
+  </si>
+  <si>
+    <t>18029</t>
+  </si>
+  <si>
+    <t>15681</t>
+  </si>
+  <si>
+    <t>92150</t>
+  </si>
+  <si>
+    <t>100159</t>
+  </si>
+  <si>
+    <t>25701</t>
+  </si>
+  <si>
+    <t>89058</t>
+  </si>
+  <si>
+    <t>11653</t>
+  </si>
+  <si>
+    <t>7543</t>
+  </si>
+  <si>
+    <t>9136</t>
+  </si>
+  <si>
+    <t>8470</t>
+  </si>
+  <si>
+    <t>11128</t>
+  </si>
+  <si>
+    <t>14387</t>
+  </si>
+  <si>
+    <t>11563</t>
+  </si>
+  <si>
+    <t>11203</t>
+  </si>
+  <si>
+    <t>77579</t>
+  </si>
+  <si>
+    <t>4360</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>1258</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>49182.0</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>82063</t>
+  </si>
+  <si>
+    <t>14210</t>
+  </si>
+  <si>
+    <t>10509</t>
+  </si>
+  <si>
+    <t>19078</t>
+  </si>
+  <si>
+    <t>34886</t>
+  </si>
+  <si>
+    <t>14107</t>
+  </si>
+  <si>
+    <t>76867</t>
+  </si>
+  <si>
+    <t>89762</t>
+  </si>
+  <si>
+    <t>36098</t>
+  </si>
+  <si>
+    <t>94103</t>
+  </si>
+  <si>
+    <t>9450</t>
+  </si>
+  <si>
+    <t>7537</t>
+  </si>
+  <si>
+    <t>7709</t>
+  </si>
+  <si>
+    <t>7061</t>
+  </si>
+  <si>
+    <t>15639</t>
+  </si>
+  <si>
+    <t>51723</t>
+  </si>
+  <si>
+    <t>9222</t>
+  </si>
+  <si>
+    <t>38419</t>
+  </si>
+  <si>
+    <t>10857</t>
+  </si>
+  <si>
+    <t>4759</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>1834</t>
+  </si>
+  <si>
+    <t>1282</t>
+  </si>
+  <si>
+    <t>1287</t>
+  </si>
+  <si>
+    <t>2389</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>997</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>49436.0</t>
+  </si>
+  <si>
+    <t>1.841</t>
+  </si>
+  <si>
+    <t>OX</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>48154</t>
+  </si>
+  <si>
+    <t>49034</t>
+  </si>
+  <si>
+    <t>10160</t>
+  </si>
+  <si>
+    <t>18512</t>
+  </si>
+  <si>
+    <t>14252</t>
+  </si>
+  <si>
+    <t>12859</t>
+  </si>
+  <si>
+    <t>98749</t>
+  </si>
+  <si>
+    <t>67013</t>
+  </si>
+  <si>
+    <t>58847</t>
+  </si>
+  <si>
+    <t>96753</t>
+  </si>
+  <si>
+    <t>7675</t>
+  </si>
+  <si>
+    <t>7103</t>
+  </si>
+  <si>
+    <t>6899</t>
+  </si>
+  <si>
+    <t>7430</t>
+  </si>
+  <si>
+    <t>15981</t>
+  </si>
+  <si>
+    <t>11676</t>
+  </si>
+  <si>
+    <t>9133</t>
+  </si>
+  <si>
+    <t>81071</t>
+  </si>
+  <si>
+    <t>7999</t>
+  </si>
+  <si>
+    <t>3876</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>1299</t>
+  </si>
+  <si>
+    <t>1548</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>1729</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>1326</t>
+  </si>
+  <si>
+    <t>49768.0</t>
+  </si>
+  <si>
+    <t>1.669</t>
+  </si>
+  <si>
+    <t>48952</t>
+  </si>
+  <si>
+    <t>43745</t>
+  </si>
+  <si>
+    <t>19245</t>
+  </si>
+  <si>
+    <t>13918</t>
+  </si>
+  <si>
+    <t>20025</t>
+  </si>
+  <si>
+    <t>13929</t>
+  </si>
+  <si>
+    <t>91906</t>
+  </si>
+  <si>
+    <t>55528</t>
+  </si>
+  <si>
+    <t>70332</t>
+  </si>
+  <si>
+    <t>96157</t>
+  </si>
+  <si>
+    <t>7104</t>
+  </si>
+  <si>
+    <t>7172</t>
+  </si>
+  <si>
+    <t>6291</t>
+  </si>
+  <si>
+    <t>15092</t>
+  </si>
+  <si>
+    <t>50965</t>
+  </si>
+  <si>
+    <t>15549</t>
+  </si>
+  <si>
+    <t>34674</t>
+  </si>
+  <si>
+    <t>9580</t>
+  </si>
+  <si>
+    <t>3658</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>49486.0</t>
+  </si>
+  <si>
+    <t>2.105</t>
+  </si>
+  <si>
+    <t>87298</t>
+  </si>
+  <si>
+    <t>12695</t>
+  </si>
+  <si>
+    <t>12661</t>
+  </si>
+  <si>
+    <t>13206</t>
+  </si>
+  <si>
+    <t>15167</t>
+  </si>
+  <si>
+    <t>14899</t>
+  </si>
+  <si>
+    <t>95794</t>
+  </si>
+  <si>
+    <t>27110</t>
+  </si>
+  <si>
+    <t>98750</t>
+  </si>
+  <si>
+    <t>93431</t>
+  </si>
+  <si>
+    <t>8607</t>
+  </si>
+  <si>
+    <t>7976</t>
+  </si>
+  <si>
+    <t>7697</t>
+  </si>
+  <si>
+    <t>8149</t>
+  </si>
+  <si>
+    <t>8958</t>
+  </si>
+  <si>
+    <t>9227</t>
+  </si>
+  <si>
+    <t>9369</t>
+  </si>
+  <si>
+    <t>25334</t>
+  </si>
+  <si>
+    <t>72972</t>
+  </si>
+  <si>
+    <t>6106</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>1679</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>1754</t>
+  </si>
+  <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>48946.0</t>
+  </si>
+  <si>
+    <t>1.106</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>16575</t>
+  </si>
+  <si>
+    <t>3104</t>
+  </si>
+  <si>
+    <t>49490.0</t>
+  </si>
+  <si>
+    <t>1.092</t>
+  </si>
+  <si>
+    <t>17227</t>
+  </si>
+  <si>
+    <t>3124</t>
+  </si>
+  <si>
+    <t>49250.0</t>
+  </si>
+  <si>
+    <t>1.085</t>
+  </si>
+  <si>
+    <t>14924</t>
+  </si>
+  <si>
+    <t>2794</t>
+  </si>
+  <si>
+    <t>49622.0</t>
+  </si>
+  <si>
+    <t>1.051</t>
+  </si>
+  <si>
+    <t>13972</t>
+  </si>
+  <si>
+    <t>2826</t>
+  </si>
+  <si>
+    <t>49098.0</t>
+  </si>
+  <si>
+    <t>1.083</t>
+  </si>
+  <si>
+    <t>16361</t>
+  </si>
+  <si>
+    <t>2983</t>
+  </si>
+  <si>
+    <t>49266.0</t>
+  </si>
+  <si>
+    <t>1.093</t>
+  </si>
+  <si>
+    <t>13949</t>
+  </si>
+  <si>
+    <t>3029</t>
+  </si>
+  <si>
+    <t>49094.0</t>
+  </si>
+  <si>
+    <t>1.089</t>
+  </si>
+  <si>
+    <t>17534</t>
+  </si>
+  <si>
+    <t>2719</t>
+  </si>
+  <si>
+    <t>49088.0</t>
+  </si>
+  <si>
+    <t>1.115</t>
+  </si>
+  <si>
+    <t>14888</t>
+  </si>
+  <si>
+    <t>2931</t>
+  </si>
+  <si>
+    <t>49264.0</t>
+  </si>
+  <si>
+    <t>15178</t>
+  </si>
+  <si>
+    <t>2786</t>
+  </si>
+  <si>
+    <t>49414.0</t>
+  </si>
+  <si>
+    <t>1.059</t>
+  </si>
+  <si>
+    <t>16876</t>
+  </si>
+  <si>
+    <t>2825</t>
+  </si>
+  <si>
+    <t>49172.0</t>
+  </si>
+  <si>
+    <t>1.058</t>
+  </si>
+  <si>
+    <t>15398</t>
+  </si>
+  <si>
+    <t>2809</t>
+  </si>
+  <si>
+    <t>49404.0</t>
+  </si>
+  <si>
+    <t>1.055</t>
+  </si>
+  <si>
+    <t>18096</t>
+  </si>
+  <si>
+    <t>2848</t>
+  </si>
+  <si>
+    <t>49130.0</t>
+  </si>
+  <si>
+    <t>1.052</t>
+  </si>
+  <si>
+    <t>15208</t>
+  </si>
+  <si>
+    <t>2847</t>
+  </si>
+  <si>
+    <t>49442.0</t>
+  </si>
+  <si>
+    <t>1.064</t>
+  </si>
+  <si>
+    <t>16333</t>
+  </si>
+  <si>
+    <t>2933</t>
+  </si>
+  <si>
+    <t>49154.0</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>17474</t>
+  </si>
+  <si>
+    <t>2988</t>
+  </si>
+  <si>
+    <t>49176.0</t>
+  </si>
+  <si>
+    <t>1.067</t>
+  </si>
+  <si>
+    <t>13211</t>
+  </si>
+  <si>
+    <t>2985</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,167 +2334,5065 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ1"/>
+  <dimension ref="A1:AZ32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" t="str" s="0">
         <v># Birds</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" t="str" s="0">
         <v># Neighbours</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" t="str" s="0">
         <v>Overlap Factor</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" t="str" s="0">
         <v># Iterations</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" t="str" s="0">
         <v>Final Cost</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" t="str" s="0">
         <v># Neighbours Created</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" t="str" s="0">
         <v>Time</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" t="str" s="0">
         <v>Density</v>
       </c>
-      <c r="I1" t="str">
+      <c r="I1" t="str" s="0">
         <v># Types</v>
       </c>
-      <c r="J1" t="str">
+      <c r="J1" t="str" s="0">
         <v>Crossover</v>
       </c>
-      <c r="K1" t="str">
+      <c r="K1" t="str" s="0">
         <v>Mutation</v>
       </c>
-      <c r="L1" t="str">
+      <c r="L1" t="str" s="0">
         <v>Mutation Intensity</v>
       </c>
-      <c r="M1" t="str">
+      <c r="M1" t="str" s="0">
         <v>Local Search</v>
       </c>
-      <c r="N1" t="str">
+      <c r="N1" t="str" s="0">
         <v>Depth of Local Search</v>
       </c>
-      <c r="O1" t="str">
+      <c r="O1" t="str" s="0">
         <v>U_PMX_COUNTER</v>
       </c>
-      <c r="P1" t="str">
+      <c r="P1" t="str" s="0">
         <v>U_OX_COUNTER</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="Q1" t="str" s="0">
         <v>U_CX_COUNTER</v>
       </c>
-      <c r="R1" t="str">
+      <c r="R1" t="str" s="0">
         <v>U_NONE_COUNTER</v>
       </c>
-      <c r="S1" t="str">
+      <c r="S1" t="str" s="0">
         <v>U_SWAPRANDOM_COUNTER</v>
       </c>
-      <c r="T1" t="str">
+      <c r="T1" t="str" s="0">
         <v>U_SWAPBEST_COUNTER</v>
       </c>
-      <c r="U1" t="str">
+      <c r="U1" t="str" s="0">
         <v>U_SCRAMBLE_COUNTER</v>
       </c>
-      <c r="V1" t="str">
+      <c r="V1" t="str" s="0">
         <v>U_SFII_COUNTER</v>
       </c>
-      <c r="W1" t="str">
+      <c r="W1" t="str" s="0">
         <v>U_SBII_COUNTER</v>
       </c>
-      <c r="X1" t="str">
+      <c r="X1" t="str" s="0">
         <v>U_MI_0.2_COUNTER</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="Y1" t="str" s="0">
         <v>U_MI_0.4_COUNTER</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="Z1" t="str" s="0">
         <v>U_MI_0.6_COUNTER</v>
       </c>
-      <c r="AA1" t="str">
+      <c r="AA1" t="str" s="0">
         <v>U_MI_0.8_COUNTER</v>
       </c>
-      <c r="AB1" t="str">
+      <c r="AB1" t="str" s="0">
         <v>U_MI_1_COUNTER</v>
       </c>
-      <c r="AC1" t="str">
+      <c r="AC1" t="str" s="0">
         <v>U_DLS_1_COUNTER</v>
       </c>
-      <c r="AD1" t="str">
+      <c r="AD1" t="str" s="0">
         <v>U_DLS_2_COUNTER</v>
       </c>
-      <c r="AE1" t="str">
+      <c r="AE1" t="str" s="0">
         <v>U_DLS_3_COUNTER</v>
       </c>
-      <c r="AF1" t="str">
+      <c r="AF1" t="str" s="0">
         <v>U_DLS_4_COUNTER</v>
       </c>
-      <c r="AG1" t="str">
+      <c r="AG1" t="str" s="0">
         <v>U_DLS_5_COUNTER</v>
       </c>
-      <c r="AH1" t="str">
+      <c r="AH1" t="str" s="0">
         <v>A_PMX_COUNTER</v>
       </c>
-      <c r="AI1" t="str">
+      <c r="AI1" t="str" s="0">
         <v>A_OX_COUNTER</v>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AJ1" t="str" s="0">
         <v>A_CX_COUNTER</v>
       </c>
-      <c r="AK1" t="str">
+      <c r="AK1" t="str" s="0">
         <v>A_NONE_COUNTER</v>
       </c>
-      <c r="AL1" t="str">
+      <c r="AL1" t="str" s="0">
         <v>A_SWAPRANDOM_COUNTER</v>
       </c>
-      <c r="AM1" t="str">
+      <c r="AM1" t="str" s="0">
         <v>A_SWAPBEST_COUNTER</v>
       </c>
-      <c r="AN1" t="str">
+      <c r="AN1" t="str" s="0">
         <v>A_SCRAMBLE_COUNTER</v>
       </c>
-      <c r="AO1" t="str">
+      <c r="AO1" t="str" s="0">
         <v>A_SFII_COUNTER</v>
       </c>
-      <c r="AP1" t="str">
+      <c r="AP1" t="str" s="0">
         <v>A_SBII_COUNTER</v>
       </c>
-      <c r="AQ1" t="str">
+      <c r="AQ1" t="str" s="0">
         <v>A_MI_0.2_COUNTER</v>
       </c>
-      <c r="AR1" t="str">
+      <c r="AR1" t="str" s="0">
         <v>A_MI_0.4_COUNTER</v>
       </c>
-      <c r="AS1" t="str">
+      <c r="AS1" t="str" s="0">
         <v>A_MI_0.6_COUNTER</v>
       </c>
-      <c r="AT1" t="str">
+      <c r="AT1" t="str" s="0">
         <v>A_MI_0.8_COUNTER</v>
       </c>
-      <c r="AU1" t="str">
+      <c r="AU1" t="str" s="0">
         <v>A_MI_1_COUNTER</v>
       </c>
-      <c r="AV1" t="str">
+      <c r="AV1" t="str" s="0">
         <v>A_DLS_1_COUNTER</v>
       </c>
-      <c r="AW1" t="str">
+      <c r="AW1" t="str" s="0">
         <v>A_DLS_2_COUNTER</v>
       </c>
-      <c r="AX1" t="str">
+      <c r="AX1" t="str" s="0">
         <v>A_DLS_3_COUNTER</v>
       </c>
-      <c r="AY1" t="str">
+      <c r="AY1" t="str" s="0">
         <v>A_DLS_4_COUNTER</v>
       </c>
-      <c r="AZ1" t="str">
+      <c r="AZ1" t="str" s="0">
         <v>A_DLS_5_COUNTER</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="X2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="AC2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AD2" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AE2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="AF2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="AK2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AM2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="AN2" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="AO2" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="AP2" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="AQ2" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="AS2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="AT2" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="AU2" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="AV2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="AW2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="AX2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="AY2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="AZ2" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="P3" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="Q3" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="R3" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="S3" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="T3" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="U3" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="V3" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="W3" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="Z3" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="AA3" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="AB3" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="AC3" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="AD3" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="AE3" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="AF3" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="AH3" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="AJ3" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="AK3" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="AL3" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="AM3" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="AN3" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="AO3" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="AP3" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="AQ3" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="AR3" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="AS3" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="AT3" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="AU3" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="AV3" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="AW3" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="AX3" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="AY3" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="AZ3" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="O4" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="P4" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="R4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="S4" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="T4" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="U4" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="V4" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="W4" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="X4" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="Y4" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="Z4" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="AA4" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="AB4" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="AC4" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="AD4" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="AE4" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="AF4" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="AG4" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="AH4" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="AI4" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="AJ4" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="AK4" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="AL4" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="AM4" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="AN4" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="AO4" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="AP4" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="AQ4" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="AR4" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="AS4" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="AT4" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="AU4" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="AV4" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="AW4" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="AX4" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="AY4" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="AZ4" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="N5" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="O5" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="P5" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="Q5" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="R5" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="S5" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="T5" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="U5" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="V5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="W5" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="X5" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="Y5" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="Z5" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="AA5" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="AB5" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="AC5" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="AD5" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="AE5" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="AF5" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="AG5" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="AH5" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="AI5" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="AJ5" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="AK5" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="AL5" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="AM5" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="AN5" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="AO5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="AP5" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="AQ5" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="AR5" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="AS5" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="AT5" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="AU5" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="AV5" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="AW5" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="AX5" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="AY5" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="AZ5" t="s" s="0">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="O6" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="P6" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="Q6" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="R6" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="S6" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="T6" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="U6" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="V6" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="W6" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="X6" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="Y6" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="Z6" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="AA6" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="AB6" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="AC6" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="AD6" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="AE6" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="AF6" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="AG6" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="AH6" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="AI6" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="AJ6" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="AK6" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="AL6" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="AM6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="AN6" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="AO6" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="AP6" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="AQ6" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="AR6" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="AS6" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="AT6" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="AU6" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="AV6" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="AW6" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="AX6" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="AY6" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="AZ6" t="s" s="0">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="O7" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="P7" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="Q7" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="R7" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="S7" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="T7" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="U7" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="V7" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="W7" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="X7" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="Y7" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="Z7" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="AA7" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="AB7" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="AC7" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="AD7" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="AE7" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="AF7" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="AG7" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="AH7" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="AI7" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="AJ7" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="AK7" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AL7" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AM7" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="AN7" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="AO7" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="AP7" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AQ7" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="AR7" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="AS7" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="AT7" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="AU7" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="AV7" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="AW7" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="AX7" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="AY7" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="AZ7" t="s" s="0">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="P8" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="Q8" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="R8" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="S8" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="T8" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="U8" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="V8" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="W8" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="X8" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="Y8" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="Z8" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="AA8" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="AB8" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="AC8" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="AD8" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="AE8" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="AF8" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="AG8" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="AH8" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="AI8" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="AJ8" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="AK8" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="AL8" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="AM8" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="AN8" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="AO8" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="AP8" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="AQ8" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="AR8" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="AS8" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="AT8" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="AU8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="AV8" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="AW8" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="AX8" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="AY8" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="AZ8" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="P9" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="Q9" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="R9" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="S9" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="T9" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="U9" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="V9" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="W9" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="X9" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="Y9" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="Z9" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="AA9" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="AB9" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="AC9" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="AD9" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="AE9" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="AF9" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="AG9" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="AH9" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="AI9" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="AJ9" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="AK9" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="AL9" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="AM9" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="AN9" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="AO9" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="AP9" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="AQ9" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="AR9" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="AS9" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="AT9" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="AU9" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="AV9" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="AW9" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="AX9" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="AY9" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="AZ9" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="P10" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="Q10" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="R10" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="S10" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="T10" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="U10" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="V10" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="W10" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="X10" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="Y10" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="Z10" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="AA10" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="AB10" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="AC10" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="AD10" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="AE10" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="AF10" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="AG10" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="AH10" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="AI10" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="AJ10" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="AK10" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="AL10" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="AM10" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="AN10" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="AO10" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="AP10" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="AQ10" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="AR10" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="AS10" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="AT10" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="AU10" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="AV10" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="AW10" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="AX10" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="AY10" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="AZ10" t="s" s="0">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="O11" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="P11" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="Q11" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="R11" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="S11" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="T11" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="U11" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="V11" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="W11" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="X11" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="Y11" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="Z11" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="AA11" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="AB11" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="AC11" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="AD11" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="AE11" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="AF11" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="AG11" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="AH11" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="AI11" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="AJ11" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="AK11" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="AL11" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="AM11" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="AN11" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="AO11" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="AP11" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="AQ11" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="AR11" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="AS11" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="AT11" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="AU11" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="AV11" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="AW11" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="AX11" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="AY11" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="AZ11" t="s" s="0">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="O12" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="P12" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="Q12" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="R12" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="S12" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="T12" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="U12" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="V12" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="W12" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="X12" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="Y12" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="Z12" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="AA12" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="AB12" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="AC12" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="AD12" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="AE12" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="AF12" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="AG12" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="AH12" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="AI12" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="AJ12" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="AK12" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="AL12" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="AM12" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="AN12" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="AO12" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="AP12" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="AQ12" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="AR12" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="AS12" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="AT12" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="AU12" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="AV12" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="AW12" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="AX12" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="AY12" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="AZ12" t="s" s="0">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="P13" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="Q13" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="R13" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="S13" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="T13" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="U13" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="V13" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="W13" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="X13" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="Y13" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="Z13" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="AA13" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="AB13" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="AC13" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="AD13" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="AE13" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="AF13" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="AG13" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="AH13" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="AI13" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="AJ13" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="AK13" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="AL13" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="AM13" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="AN13" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="AO13" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="AP13" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="AQ13" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="AR13" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="AS13" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="AT13" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="AU13" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="AV13" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="AW13" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="AX13" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="AY13" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="AZ13" t="s" s="0">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="M14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="N14" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="P14" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="Q14" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="R14" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="S14" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="T14" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="U14" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="V14" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="W14" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="X14" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="Y14" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="Z14" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="AA14" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="AB14" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="AC14" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="AD14" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="AE14" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="AF14" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="AG14" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="AH14" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="AI14" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="AJ14" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="AK14" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="AL14" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="AM14" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="AN14" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="AO14" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="AP14" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="AQ14" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="AR14" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="AS14" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="AT14" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="AU14" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="AV14" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="AW14" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="AX14" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="AY14" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="AZ14" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N15" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="P15" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="Q15" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="R15" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="S15" t="s" s="0">
+        <v>516</v>
+      </c>
+      <c r="T15" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="U15" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="V15" t="s" s="0">
+        <v>519</v>
+      </c>
+      <c r="W15" t="s" s="0">
+        <v>520</v>
+      </c>
+      <c r="X15" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="Y15" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="Z15" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="AA15" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="AB15" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="AC15" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="AD15" t="s" s="0">
+        <v>526</v>
+      </c>
+      <c r="AE15" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="AF15" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="AG15" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="AH15" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="AI15" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="AJ15" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="AK15" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="AL15" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="AM15" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="AN15" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="AO15" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="AP15" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="AQ15" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="AR15" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="AS15" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="AT15" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="AU15" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="AV15" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="AW15" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="AX15" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="AY15" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="AZ15" t="s" s="0">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N16" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="O16" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="P16" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="Q16" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="R16" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="S16" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="T16" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="U16" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="V16" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="W16" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="X16" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="Y16" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="Z16" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="AA16" t="s" s="0">
+        <v>558</v>
+      </c>
+      <c r="AB16" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="AC16" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="AD16" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="AE16" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="AF16" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="AG16" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="AH16" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="AI16" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="AJ16" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="AK16" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="AL16" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="AM16" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="AN16" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="AO16" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="AP16" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="AQ16" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="AR16" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="AS16" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="AT16" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="AU16" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="AV16" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="AW16" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="AX16" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="AY16" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="AZ16" t="s" s="0">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>579</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>580</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH17" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="AI17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL17" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="AM17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP17" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="AQ17" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="AR17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV17" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="AW17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY17" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ17" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N18" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH18" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="AI18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL18" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="AM18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP18" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="AQ18" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="AR18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV18" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="AW18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY18" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ18" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N19" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH19" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="AI19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL19" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="AM19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP19" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="AQ19" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="AR19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV19" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="AW19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY19" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ19" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M20" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N20" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH20" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="AI20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL20" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="AM20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP20" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="AQ20" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="AR20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV20" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="AW20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY20" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ20" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M21" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N21" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH21" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="AI21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL21" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="AM21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP21" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="AQ21" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="AR21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV21" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="AW21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY21" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ21" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L22" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N22" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH22" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="AI22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL22" t="s" s="0">
+        <v>603</v>
+      </c>
+      <c r="AM22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP22" t="s" s="0">
+        <v>603</v>
+      </c>
+      <c r="AQ22" t="s" s="0">
+        <v>603</v>
+      </c>
+      <c r="AR22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV22" t="s" s="0">
+        <v>603</v>
+      </c>
+      <c r="AW22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY22" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ22" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N23" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH23" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="AI23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL23" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="AM23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP23" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="AQ23" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="AR23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV23" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="AW23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY23" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ23" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L24" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N24" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH24" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="AI24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL24" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="AM24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP24" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="AQ24" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="AR24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV24" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="AW24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY24" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ24" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L25" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M25" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N25" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH25" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="AI25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL25" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="AM25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP25" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="AQ25" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="AR25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV25" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="AW25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY25" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ25" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L26" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M26" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N26" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH26" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="AI26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL26" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="AM26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP26" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="AQ26" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="AR26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV26" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="AW26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY26" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ26" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K27" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L27" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M27" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N27" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH27" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="AI27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL27" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="AM27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP27" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="AQ27" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="AR27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV27" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="AW27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY27" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ27" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L28" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M28" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N28" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH28" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="AI28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL28" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="AM28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP28" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="AQ28" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="AR28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV28" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="AW28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY28" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ28" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K29" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L29" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M29" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N29" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH29" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="AI29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL29" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="AM29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP29" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="AQ29" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="AR29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV29" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="AW29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY29" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ29" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K30" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L30" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M30" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N30" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH30" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="AI30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL30" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="AM30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP30" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="AQ30" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="AR30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV30" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="AW30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY30" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ30" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K31" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L31" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M31" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N31" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH31" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="AI31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL31" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="AM31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP31" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="AQ31" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="AR31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV31" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="AW31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY31" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ31" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="L32" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M32" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N32" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="P32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Q32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="R32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="S32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="U32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="V32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="W32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="X32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Y32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="Z32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AA32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AB32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AC32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AD32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AE32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AF32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AG32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AH32" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="AI32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AJ32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AK32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AL32" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="AM32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AN32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AO32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AP32" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="AQ32" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="AR32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AS32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AT32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AU32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AV32" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="AW32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AX32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AY32" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="AZ32" t="s" s="0">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
